--- a/Docs/Requerimientos funcionales.xlsx
+++ b/Docs/Requerimientos funcionales.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabs-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ka.babativa\Desktop\Sistrans\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{376581A4-E314-466D-9271-E1EDE2E32B23}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>RF11</t>
   </si>
@@ -267,12 +267,27 @@
   </si>
   <si>
     <t>id:n,"id_usuario":4,"fecha":"2017-05-10","estado":"PENDIENTE"</t>
+  </si>
+  <si>
+    <t>RF17</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/VideoAndes/rest/pedidoProducto/menu DELETE</t>
+  </si>
+  <si>
+    <t>pedido:{"id":8}</t>
+  </si>
+  <si>
+    <t>producto:[{"nombre":"global"}],</t>
+  </si>
+  <si>
+    <t>Se elimina el producto global del pedido 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +389,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -689,11 +704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DC3807-AB61-4AE8-B7C5-C79DC0C51733}">
-  <dimension ref="A1:E93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,17 +1641,139 @@
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{31752877-9F80-4015-8C21-AA808902CB07}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{DEC44F8A-0D01-4E5A-B167-45839659CB69}"/>
-    <hyperlink ref="D20" r:id="rId3" xr:uid="{94B1650F-5008-472C-B962-539E5427F465}"/>
-    <hyperlink ref="D29" r:id="rId4" xr:uid="{D96E6F4B-1907-44BC-9604-1634831C6E73}"/>
-    <hyperlink ref="D38" r:id="rId5" xr:uid="{AB2D5F9E-7D8E-4354-8B3E-1B1DA1AD9EA2}"/>
-    <hyperlink ref="D51" r:id="rId6" xr:uid="{E83C8BE2-A234-4776-B215-8795A979F4F5}"/>
-    <hyperlink ref="D77" r:id="rId7" xr:uid="{55D3AD44-9D72-478F-BF33-80EA3B83251C}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="D29" r:id="rId4"/>
+    <hyperlink ref="D38" r:id="rId5"/>
+    <hyperlink ref="D51" r:id="rId6"/>
+    <hyperlink ref="D77" r:id="rId7"/>
+    <hyperlink ref="D94" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>